--- a/web_ces/indicadores/ARG-X_out.xlsx
+++ b/web_ces/indicadores/ARG-X_out.xlsx
@@ -30045,13 +30045,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC689A07-F144-4E41-A169-7FA83DC160A4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{96301009-0D41-422C-8E1D-4192B3A3829B}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C5E72E20-148E-4F9C-AB2B-C4BE83E619B4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8B4CC470-241C-4599-ADE8-ADB1BFFFAB75}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD9C3EA6-10D7-4CD9-9C58-8F507836DE39}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BE5789F-B476-4B22-A356-9CADAAC1C594}"/>
 </file>